--- a/biology/Médecine/James_Esdaile/James_Esdaile.xlsx
+++ b/biology/Médecine/James_Esdaile/James_Esdaile.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Esdaile, né le 6 février 1808 à Montrose, Angus et mort le 10 janvier 1859 à Sydenham, est un médecin écossais connu pour sa pratique du magnétisme animal, notamment en anesthésiologie chirurgicale via l'état d'esdaile à l'époque qui a immédiatement précédé la découverte du chloroforme par James Young Simpson. 
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils du pasteur James Esdaile et de Margaret Blair, James Esdaile suit des études de médecine à l'université d'Édimbourg où il obtient son doctorat en 1830. Cette même année, il est nommé assistant chirurgien à la Compagnie anglaise des Indes orientales et arrive à Calcutta, Bengal, en 1831. Ayant souffert de bronchite chronique et d'asthme depuis son adolescence, Esdaile espérait que le climat de l'Inde lui serait bénéfique.
 Esdaile pratique le magnétisme animal pour la première fois le 4 avril 1845. Rapidement, il gagne une réputation pour sa pratique de chirurgie sans douleur. En 1846, le vice-gouverneur du Bengal, sir Herbert Maddocks, nomme une commission pour étudier les travaux d'Esdaile. Cette commission émet un rapport favorable le 9 octobre 1846.
@@ -544,7 +558,9 @@
           <t>Relation avec l'hypnotisme</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon les auteurs, on classe Esdaile parmi les praticiens du magnétisme animal (aussi appelé mesmérisme, du nom de son inventeur Frédéric-Antoine Mesmer) ou parmi les premiers praticiens de l'hypnose. 
 Il est traditionnel de faire remonter la pratique de ce que nous appelons actuellement hypnose à la réaction de James Braid à une démonstration publique des techniques de magnétisme animal donnée par Charles Lafontaine à Manchester le 13 novembre 1841.
